--- a/Practice Sessions/Session 2/Data/ClimateVariables.xlsx
+++ b/Practice Sessions/Session 2/Data/ClimateVariables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Dropbox\CRED_Thanh\Training 3\Session 2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onanongchinskul/Dropbox/DGE-CRED-master/DGE-CRED-master/Practice Sessions/Session 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013D1B6-D8D9-4D7F-B304-B1D559EE9C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D909093-40EF-6A4A-A96F-C1A9ECB89C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3234" yWindow="3234" windowWidth="17280" windowHeight="8994" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="500" windowWidth="20300" windowHeight="13120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSP119" sheetId="1" r:id="rId1"/>
@@ -167,19 +167,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-19_soc-ssp1_percentile-50" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-45_soc-ssp2_percentile-50" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-45_soc-ssp2_percentile-50" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-85_soc-ssp5_percentile-50" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-85_soc-ssp5_percentile-50" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-85_soc-ssp5_percentile-5" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-85_soc-ssp5_percentile-5" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TC-people_affected_VNM_minwind-64_rcp-19_soc-ssp1_percentile-50" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,15 +448,15 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -481,7 +481,7 @@
         <v>1.2833000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -495,7 +495,7 @@
         <v>1.5400000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1.8520000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -523,7 +523,7 @@
         <v>2.1640000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -537,7 +537,7 @@
         <v>2.476</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -551,7 +551,7 @@
         <v>2.7879999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -565,7 +565,7 @@
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2026</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3.4120000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2027</v>
       </c>
@@ -593,7 +593,7 @@
         <v>3.7239999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -607,7 +607,7 @@
         <v>4.0359999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2029</v>
       </c>
@@ -621,7 +621,7 @@
         <v>4.3480000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -635,7 +635,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2031</v>
       </c>
@@ -649,7 +649,7 @@
         <v>4.886000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2032</v>
       </c>
@@ -663,7 +663,7 @@
         <v>5.1120000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2033</v>
       </c>
@@ -677,7 +677,7 @@
         <v>5.3379999999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2034</v>
       </c>
@@ -691,7 +691,7 @@
         <v>5.5639999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2035</v>
       </c>
@@ -705,7 +705,7 @@
         <v>5.7900000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2036</v>
       </c>
@@ -719,7 +719,7 @@
         <v>6.016</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2037</v>
       </c>
@@ -733,7 +733,7 @@
         <v>6.242</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2038</v>
       </c>
@@ -747,7 +747,7 @@
         <v>6.4679999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2039</v>
       </c>
@@ -761,7 +761,7 @@
         <v>6.694</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -775,7 +775,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2041</v>
       </c>
@@ -789,7 +789,7 @@
         <v>7.2819999999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2042</v>
       </c>
@@ -803,7 +803,7 @@
         <v>7.6440000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2043</v>
       </c>
@@ -817,7 +817,7 @@
         <v>8.0059999999999985</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2044</v>
       </c>
@@ -831,7 +831,7 @@
         <v>8.3680000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2045</v>
       </c>
@@ -845,7 +845,7 @@
         <v>8.7299999999999986</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2046</v>
       </c>
@@ -859,7 +859,7 @@
         <v>9.0920000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2047</v>
       </c>
@@ -873,7 +873,7 @@
         <v>9.4539999999999988</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2048</v>
       </c>
@@ -887,7 +887,7 @@
         <v>9.8160000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2049</v>
       </c>
@@ -901,7 +901,7 @@
         <v>10.178000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -915,7 +915,7 @@
         <v>10.540000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2051</v>
       </c>
@@ -929,7 +929,7 @@
         <v>10.726000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2052</v>
       </c>
@@ -943,7 +943,7 @@
         <v>10.912000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2053</v>
       </c>
@@ -957,7 +957,7 @@
         <v>11.098000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2054</v>
       </c>
@@ -971,7 +971,7 @@
         <v>11.283999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2055</v>
       </c>
@@ -985,7 +985,7 @@
         <v>11.469999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2056</v>
       </c>
@@ -999,7 +999,7 @@
         <v>11.656000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2057</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>11.842000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2058</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>12.028</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2059</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>12.214</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2060</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2061</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>12.719999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2062</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>13.040000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2063</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>13.360000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2064</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>13.680000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2065</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2066</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>14.319999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2067</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2068</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>14.959999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2069</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>15.280000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2070</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2071</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>15.852</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2072</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>16.104000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2073</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>16.356000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2074</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>16.608000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2075</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>16.860000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2076</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>17.112000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2077</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>17.364000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2078</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>17.616000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2079</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>17.868000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2080</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>18.119999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2081</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>18.456</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2082</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>18.792000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2083</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>19.128</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2084</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>19.463999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2085</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>19.800000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2086</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>20.135999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2087</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>20.472000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2088</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>20.808</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2089</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>21.143999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2090</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2091</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>21.673999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2092</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>21.868000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2093</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>22.062000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2094</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>22.256</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2095</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2096</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>22.643999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2097</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>22.838000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2098</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>23.032</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2099</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>23.225999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2100</v>
       </c>
@@ -1625,15 +1625,15 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1.0916600000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>1.5820000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>1.8539999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>2.1260000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>2.3980000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>2.6700000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2026</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2.9420000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2027</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>3.214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>3.4859999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2029</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>3.758</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4.0299999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2031</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>4.3579999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2032</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>4.6859999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2033</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>5.0140000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2034</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>5.3420000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2035</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2036</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>5.9979999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2037</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>6.3259999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2038</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>6.653999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2039</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>6.9819999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2041</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7.7919999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2042</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>8.2740000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2043</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>8.7560000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2044</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>9.2379999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2045</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2046</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>10.202</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2047</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>10.684000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2048</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>11.166</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2049</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>11.648000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>12.129999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2051</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>12.572000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2052</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>13.014000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2053</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>13.456</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2054</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>13.898000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2055</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2056</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>14.782</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2057</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>15.224</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2058</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>15.666000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2059</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>16.108000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2060</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2061</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>17.095999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2062</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>17.641999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2063</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>18.187999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2064</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>18.734000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2065</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2066</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>19.826000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2067</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>20.372</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2068</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>20.917999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2069</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>21.464000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2070</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>22.009999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2071</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>22.565999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2072</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>23.122</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2073</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>23.677999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2074</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>24.234000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2075</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>24.79</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2076</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>25.345999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2077</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>25.901999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2078</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>26.457999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2079</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>27.013999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2080</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2081</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>28.167999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2082</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>28.765999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2083</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>29.363999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2084</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>29.961999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2085</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>30.560000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2086</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>31.157999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2087</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>31.756</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2088</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>32.353999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2089</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>32.951999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2090</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>33.549999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2091</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>34.32</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2092</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>35.089999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2093</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>35.86</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2094</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>36.630000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2095</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2096</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>38.17</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2097</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>38.94</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2098</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>39.709999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2099</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>40.480000000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2100</v>
       </c>
@@ -2801,16 +2801,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>1.0082600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1.556</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>2.2480000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>2.5940000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>2.9400000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2026</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>3.286</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2027</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>3.6319999999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>3.9780000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2029</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>4.3239999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2031</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>5.1180000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2032</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>5.5660000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2033</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>6.0140000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2034</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>6.4620000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2035</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>6.9099999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2036</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>7.3580000000000023</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2037</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>7.8060000000000027</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2038</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>8.2540000000000013</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2039</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>8.7020000000000017</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>9.1500000000000021</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2041</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>9.7360000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2042</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>10.321999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2043</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>10.907999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2044</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>11.493999999999991</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2045</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>12.079999999999989</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2046</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>12.665999999999988</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2047</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>13.251999999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2048</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>13.837999999999983</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2049</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>14.423999999999984</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>15.00999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2051</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>15.598000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2052</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>16.186000000000018</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2053</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>16.77400000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2054</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>17.362000000000059</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2055</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>17.950000000000081</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2056</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>18.5380000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2057</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>19.126000000000118</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2058</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>19.714000000000137</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2059</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>20.302000000000159</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2060</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>20.890000000000178</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2061</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>21.702000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2062</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>22.513999999999825</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2063</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>23.325999999999645</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2064</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>24.137999999999469</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2065</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>24.949999999999285</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2066</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>25.761999999999112</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2067</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>26.573999999998932</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2068</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>27.385999999998752</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2069</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>28.197999999998576</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2070</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>29.009999999998399</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2071</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2072</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>30.890000000001599</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2073</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>31.830000000003203</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2074</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>32.770000000004806</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2075</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>33.71000000000641</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2076</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>34.650000000007992</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2077</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>35.590000000009596</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2078</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>36.530000000011192</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2079</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>37.470000000012796</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2080</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>38.410000000014399</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2081</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>39.528000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2082</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>40.645999999985605</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2083</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>41.763999999971205</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2084</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>42.881999999956804</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2085</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>43.999999999942411</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2086</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>45.11799999992801</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2087</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>46.235999999913609</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2088</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>47.35399999989923</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2089</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>48.471999999884829</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2090</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>49.589999999870464</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2091</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>50.862000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2092</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>52.134000000129539</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2093</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>53.406000000259084</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2094</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>54.678000000388622</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2095</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>55.950000000518138</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2096</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>57.222000000647689</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2097</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>58.494000000777227</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2098</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>59.766000000906772</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2099</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>61.038000001036337</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2100</v>
       </c>
@@ -3978,28 +3978,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H108" workbookViewId="0">
+    <sheetView topLeftCell="H108" workbookViewId="0">
       <selection activeCell="R42" sqref="R42:R123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.62890625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.62890625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.62890625" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.625" customWidth="1"/>
+    <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1980</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>25.317454674089031</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1981</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>26.324851445470674</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1982</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>30.64133738106786</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1983</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>30.572318072183538</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1984</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>24.177708895588555</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1985</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>27.701948062124107</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>30.391646658202323</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>28.41945008313208</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1988</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>27.577029752834775</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>27.887939133539358</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>30.201964380884856</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>30.532779392880308</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>28.827761444210786</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1993</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>26.126411484326564</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1994</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>25.973523868664643</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>32.331628735992687</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1996</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>29.969059693076979</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>28.030193005617111</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>30.137427079272101</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>29.973011797207896</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>26.264645955941386</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>25.171025827856692</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>31.7858671395689</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>32.17913513877911</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>31.661852911824788</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>26.320733509354795</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>30.506797592086276</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>27.965983423034057</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>29.241042870693764</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>27.513692550110068</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>27.775912564530302</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>33.154344869412498</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>28.955307347861712</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>23.629921389536175</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>33.788049152085129</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>34.297289158650173</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>30.266599425378949</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>27.417854638106494</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>28.790144154543022</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>31.769885183349437</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>35.177258719992075</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>27.331000666991407</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>30.4170176036396</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>33.049670907524153</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2024</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>31.108749701727653</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2025</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>27.630355031694606</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2026</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>31.693460665801418</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2027</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>29.074800441487351</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2028</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>31.59526621359057</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2029</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>28.354997997570909</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2030</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>35.053975566586303</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2031</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>34.813573268864062</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2032</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>32.109416235971821</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2033</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>29.326629855712024</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2034</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>30.648929466777822</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2035</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>31.528405118042929</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2036</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>31.613113157284133</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2037</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>29.03883036845081</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2038</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>30.875869675127859</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2039</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>34.909373635387354</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2040</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>33.991154661378175</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2041</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>27.380521618391661</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2042</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>36.090589286027573</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2043</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>29.475941209132358</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2044</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>34.058417687309067</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2045</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>30.749246853298146</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2046</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>34.47841332124019</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2047</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>37.299490866004604</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2048</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>34.055259615990508</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2049</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>30.925362012741139</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2050</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>32.80891796195769</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2051</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>31.626294736735385</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2052</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>34.816826149744443</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2053</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>32.757045466097537</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2054</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>36.585768629760359</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2055</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>33.223761991161489</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2056</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>33.017753650931944</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2057</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>28.622724050622089</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2058</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>32.634226264262693</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2059</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>32.451613273590837</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2060</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>38.56137219453192</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2061</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>30.68738078565622</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2062</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>27.678787844360269</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2063</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>36.466639118551107</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2064</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>32.533844341337357</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2065</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>28.507930941071319</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2066</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>33.847497257900976</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2067</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>34.359957717239475</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2068</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>40.873683694667221</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2069</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>31.959335660099015</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2070</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>41.02329928372658</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2071</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>32.72070935036939</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2072</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>34.801853498261075</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2073</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>29.432850592336685</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2074</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>34.701860702135612</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2075</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>39.197857349370359</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2076</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>40.658176092265734</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2077</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>29.067805443729942</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2078</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>33.863678569760708</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2079</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>29.54655552192985</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2080</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>31.329502310436673</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2081</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>28.815855212969037</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2082</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>35.984764824912183</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2083</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>37.550131720926622</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2084</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>38.940332514857687</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2085</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>31.139771267749797</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2086</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>37.073314429111214</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2087</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>36.090492010392076</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2088</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>34.789352126446218</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2089</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>33.343069567903356</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2090</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>38.810522930151159</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2091</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>30.509362603932985</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2092</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>33.345940481131905</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2093</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>30.420838238291299</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2094</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>29.083379686123955</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2095</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>39.353675005757651</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2096</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>31.830573950721025</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2097</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>30.051625386866661</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2098</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>28.385418447828457</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2099</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>35.433214400971472</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2100</v>
       </c>
